--- a/data/0. old data/0. raw/2016/companies/baxalta.xlsx
+++ b/data/0. old data/0. raw/2016/companies/baxalta.xlsx
@@ -319,9 +319,6 @@
     <t>Hämatologie Claudiusstrasse 6 9006 St. Gallen</t>
   </si>
   <si>
-    <t>SAKK; SPOG-GOPS</t>
-  </si>
-  <si>
     <t>Effingerstrasse 33</t>
   </si>
   <si>
@@ -441,6 +438,9 @@
   </si>
   <si>
     <t xml:space="preserve">Inselspital Stiftungen und Fords </t>
+  </si>
+  <si>
+    <t>SPOG-GOPS</t>
   </si>
 </sst>
 </file>
@@ -1396,9 +1396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>45</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>47</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>38</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>40</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>47</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>41</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>41</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>49</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>49</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>49</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="4" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>49</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="8"/>
@@ -2458,16 +2458,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="18"/>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="35" spans="1:14" ht="26">
       <c r="A35" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>54</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="18"/>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>41</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>53</v>
@@ -2582,16 +2582,16 @@
     </row>
     <row r="38" spans="1:14" ht="26">
       <c r="A38" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="18"/>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>41</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>41</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="18"/>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="41" spans="1:14" ht="26">
       <c r="A41" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>47</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>41</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="18"/>
@@ -2734,16 +2734,16 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="18"/>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="45" spans="1:14" ht="26">
       <c r="A45" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>41</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="18"/>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>47</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>47</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="18"/>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>47</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="18">
@@ -2932,7 +2932,7 @@
     </row>
     <row r="49" spans="1:14" ht="26">
       <c r="A49" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>41</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="18"/>
